--- a/OFFERS-180/1/ru.xlsx
+++ b/OFFERS-180/1/ru.xlsx
@@ -478,142 +478,142 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v xml:space="preserve">Лента изолятор </v>
+        <v>Водоотталкивающая лента</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>водоотталкивающая лента</v>
+        <v xml:space="preserve">Лента изолятор — самоклеющаяся лента, предназначенная для герметизации, изоляции от влаги и эстетической маскировки швов. </v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v xml:space="preserve">Лента изолятор — самоклеющаяся лента, предназначенная для герметизации, изоляции от влаги и эстетической маскировки швов. </v>
+        <v xml:space="preserve">Новинку широко применяют при установке сантехники. Защита соединений устойчива к воздействию чистящих составов и дезинфицирующих растворов. Лента моментально прикрепляется к поверхности, а прочность сцепления сохраняется в течение всего периода эксплуатации. Бордюр надежно защищает от грязи, воды и плесени, исключает образование темного налета. </v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v xml:space="preserve">Новинку широко применяют при установке сантехники. Защита соединений устойчива к воздействию чистящих составов и дезинфицирующих растворов. Лента моментально прикрепляется к поверхности, а прочность сцепления сохраняется в течение всего периода эксплуатации. Бордюр надежно защищает от грязи, воды и плесени, исключает образование темного налета. </v>
+        <v xml:space="preserve">Моментальная адгезия </v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v xml:space="preserve">Моментальная адгезия </v>
+        <v>Простота в применении</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Простота в применении</v>
+        <v>Водонепроницаемость</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Водонепроницаемость</v>
+        <v>Защита от плесени</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Защита от плесени</v>
+        <v>Декоративность</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Декоративность</v>
+        <v>Постоянная чистота</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Постоянная чистота</v>
+        <v>Устойчивость к воздействию чистящих средств</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Устойчивость к воздействию чистящих средств</v>
+        <v>Заказать сейчас</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Заказать сейчас</v>
+        <v>Характеристики:</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Характеристики:</v>
+        <v xml:space="preserve">Материал: </v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v xml:space="preserve">Материал: </v>
+        <v xml:space="preserve">ПВХ </v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v xml:space="preserve">ПВХ </v>
+        <v xml:space="preserve">Цвет: </v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v xml:space="preserve">Цвет: </v>
+        <v>Белый</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Белый</v>
+        <v xml:space="preserve">Ширина: </v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v xml:space="preserve">Ширина: </v>
+        <v>3,8 см</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>3,8 см</v>
+        <v xml:space="preserve">Толщина: </v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v xml:space="preserve">Толщина: </v>
+        <v>2мм</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2мм</v>
+        <v xml:space="preserve">Длина: </v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v xml:space="preserve">Длина: </v>
+        <v>3 м</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>3 м</v>
+        <v xml:space="preserve">Подходит для следующих поверхностей: </v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v xml:space="preserve">Подходит для следующих поверхностей: </v>
+        <v xml:space="preserve">Дерево, Обои, Стекло, Металл и многие другие </v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v xml:space="preserve">Дерево, Обои, Стекло, Металл и многие другие </v>
+        <v>Заказать сейчас</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Заказать сейчас</v>
+        <v xml:space="preserve">Подарок </v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v xml:space="preserve">Подарок </v>
+        <v xml:space="preserve">Набор Jar zipper bags </v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v xml:space="preserve">Набор Jar zipper bags Original Jar Zipper Bags выполнены в виде винтажных банок Ball Mason станет не только незаменимыми помощниками на кухне, но и идеальным компаньоном для путешествий и походов, они идеально подходят для защиты свежести различных закусок, фруктов, овощей, крекеров, печенья и бутерброды и т. </v>
+        <v xml:space="preserve">Original Jar Zipper Bags выполнены в виде винтажных банок Ball Mason станет не только незаменимыми помощниками на кухне, но и идеальным компаньоном для путешествий и походов, они идеально подходят для защиты свежести различных закусок, фруктов, овощей, крекеров, печенья и бутерброды и т. </v>
       </c>
     </row>
     <row r="48">
@@ -1046,13 +1046,13 @@
          &lt;iframe width="560" height="315" src="https://www.youtube.com/embed/8vta7d6vbOo" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;
       &lt;/div&gt;
       &lt;section class="opisanie"&gt;
-         &lt;h2 class="venzel"&gt;&lt;span data-translate="20"&gt;Лента изолятор
-            &lt;/span&gt;&lt;b&gt;&lt;span data-translate="21"&gt;водоотталкивающая лента&lt;/span&gt;&lt;/b&gt;
+         &lt;h2 class="venzel"&gt;
+            &lt;b&gt;&lt;span data-translate="20"&gt;Водоотталкивающая лента&lt;/span&gt;&lt;/b&gt;
          &lt;/h2&gt;
          &lt;img alt="Smart Watch V8" class="center" src="img/2.jpg"&gt;
-         &lt;p class="justify"&gt;&lt;span data-translate="22"&gt;Лента изолятор — самоклеющаяся лента, предназначенная для герметизации, изоляции от влаги и
+         &lt;p class="justify"&gt;&lt;span data-translate="21"&gt;Лента изолятор — самоклеющаяся лента, предназначенная для герметизации, изоляции от влаги и
             эстетической маскировки швов. &lt;/span&gt;&lt;/p&gt;
-         &lt;p class="justify"&gt;&lt;span data-translate="23"&gt;Новинку широко применяют при установке сантехники. Защита соединений устойчива к воздействию
+         &lt;p class="justify"&gt;&lt;span data-translate="22"&gt;Новинку широко применяют при установке сантехники. Защита соединений устойчива к воздействию
             чистящих составов и дезинфицирующих растворов. Лента моментально прикрепляется к поверхности, а прочность
             сцепления сохраняется в течение всего периода эксплуатации. Бордюр надежно защищает от грязи, воды и
             плесени, исключает образование темного налета.
@@ -1060,45 +1060,44 @@
       &lt;/section&gt;
       &lt;section&gt; &lt;img alt="Smart Watch V8" src="img/6.gif"&gt;
          &lt;ul class="spisok ul_black black_ul"&gt;
-            &lt;li&gt;&lt;span data-translate="24"&gt;Моментальная адгезия
+            &lt;li&gt;&lt;span data-translate="23"&gt;Моментальная адгезия
             &lt;/span&gt;&lt;/li&gt;
-            &lt;li&gt;&lt;span data-translate="25"&gt;Простота в применении&lt;/span&gt;&lt;/li&gt;
-            &lt;li&gt;&lt;span data-translate="26"&gt;Водонепроницаемость&lt;/span&gt;&lt;/li&gt;
-            &lt;li&gt;&lt;span data-translate="27"&gt;Защита от плесени&lt;/span&gt;&lt;/li&gt;
-            &lt;li&gt;&lt;span data-translate="28"&gt;Декоративность&lt;/span&gt;&lt;/li&gt;
-            &lt;li&gt;&lt;span data-translate="29"&gt;Постоянная чистота&lt;/span&gt;&lt;/li&gt;
-            &lt;li&gt;&lt;span data-translate="30"&gt;Устойчивость к воздействию чистящих средств&lt;/span&gt;&lt;/li&gt;
+            &lt;li&gt;&lt;span data-translate="24"&gt;Простота в применении&lt;/span&gt;&lt;/li&gt;
+            &lt;li&gt;&lt;span data-translate="25"&gt;Водонепроницаемость&lt;/span&gt;&lt;/li&gt;
+            &lt;li&gt;&lt;span data-translate="26"&gt;Защита от плесени&lt;/span&gt;&lt;/li&gt;
+            &lt;li&gt;&lt;span data-translate="27"&gt;Декоративность&lt;/span&gt;&lt;/li&gt;
+            &lt;li&gt;&lt;span data-translate="28"&gt;Постоянная чистота&lt;/span&gt;&lt;/li&gt;
+            &lt;li&gt;&lt;span data-translate="29"&gt;Устойчивость к воздействию чистящих средств&lt;/span&gt;&lt;/li&gt;
          &lt;/ul&gt;
-   </v>
+         &lt;!-- &lt;p class="justify"&gt;Чего не могут, по</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str" xml:space="preserve">
-        <v xml:space="preserve">      &lt;!-- &lt;p class="justify"&gt;Чего не могут, пока еще.. Варить кофе и приносить тапочки. Но мы над этим работаем :-)&lt;/p&gt; --&gt;
-         &lt;p&gt;&lt;a href="#order_form" class="button-m"&gt;&lt;span data-translate="31"&gt;Заказать сейчас&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+        <v xml:space="preserve">ка еще.. Варить кофе и приносить тапочки. Но мы над этим работаем :-)&lt;/p&gt; --&gt;
+         &lt;p&gt;&lt;a href="#order_form" class="button-m"&gt;&lt;span data-translate="30"&gt;Заказать сейчас&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
       &lt;/section&gt;
       &lt;section&gt;
-         &lt;h2 class="venzel"&gt;&lt;span data-translate="32"&gt;Характеристики:&lt;/span&gt;&lt;/h2&gt;
+         &lt;h2 class="venzel"&gt;&lt;span data-translate="31"&gt;Характеристики:&lt;/span&gt;&lt;/h2&gt;
          &lt;ul class="ul_str"&gt;
-            &lt;li&gt;&lt;span&gt;&lt;span data-translate="33"&gt;Материал: &lt;/span&gt;&lt;/span&gt;&lt;span data-translate="34"&gt;ПВХ
+            &lt;li&gt;&lt;span&gt;&lt;span data-translate="32"&gt;Материал: &lt;/span&gt;&lt;/span&gt;&lt;span data-translate="33"&gt;ПВХ
             &lt;/span&gt;&lt;/li&gt;
-            &lt;li&gt;&lt;span&gt;&lt;span data-translate="35"&gt;Цвет: &lt;/span&gt;&lt;/span&gt;&lt;span data-translate="36"&gt;Белый&lt;/span&gt;&lt;/li&gt;
-            &lt;li&gt;&lt;span&gt;&lt;span data-translate="37"&gt;Ширина: &lt;/span&gt;&lt;/span&gt;&lt;span data-translate="38"&gt;3,8 см&lt;/span&gt;&lt;/li&gt;
-            &lt;li&gt;&lt;span&gt;&lt;span data-translate="39"&gt;Толщина: &lt;/span&gt;&lt;/span&gt;&lt;span data-translate="40"&gt;2мм&lt;/span&gt;&lt;/li&gt;
-            &lt;li&gt;&lt;span&gt;&lt;span data-translate="41"&gt;Длина: &lt;/span&gt;&lt;/span&gt;&lt;span data-translate="42"&gt;3 м&lt;/span&gt;&lt;/li&gt;
-            &lt;li&gt;&lt;span&gt;&lt;span data-translate="43"&gt;Подходит для следующих поверхностей: &lt;/span&gt;&lt;/span&gt;&lt;span data-translate="44"&gt;Дерево, Обои, Стекло, Металл и многие другие
+            &lt;li&gt;&lt;span&gt;&lt;span data-translate="34"&gt;Цвет: &lt;/span&gt;&lt;/span&gt;&lt;span data-translate="35"&gt;Белый&lt;/span&gt;&lt;/li&gt;
+            &lt;li&gt;&lt;span&gt;&lt;span data-translate="36"&gt;Ширина: &lt;/span&gt;&lt;/span&gt;&lt;span data-translate="37"&gt;3,8 см&lt;/span&gt;&lt;/li&gt;
+            &lt;li&gt;&lt;span&gt;&lt;span data-translate="38"&gt;Толщина: &lt;/span&gt;&lt;/span&gt;&lt;span data-translate="39"&gt;2мм&lt;/span&gt;&lt;/li&gt;
+            &lt;li&gt;&lt;span&gt;&lt;span data-translate="40"&gt;Длина: &lt;/span&gt;&lt;/span&gt;&lt;span data-translate="41"&gt;3 м&lt;/span&gt;&lt;/li&gt;
+            &lt;li&gt;&lt;span&gt;&lt;span data-translate="42"&gt;Подходит для следующих поверхностей: &lt;/span&gt;&lt;/span&gt;&lt;span data-translate="43"&gt;Дерево, Обои, Стекло, Металл и многие другие
             &lt;/span&gt;&lt;/li&gt;
          &lt;/ul&gt;
       &lt;/section&gt;
       &lt;img alt="Smart Watch V8" class="center" src="img/tov-2.jpg"&gt;
-      &lt;p&gt;&lt;a href="#order_form" class="button-m"&gt;&lt;span data-translate="45"&gt;Заказать сейчас&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
+      &lt;p&gt;&lt;a href="#order_form" class="button-m"&gt;&lt;span data-translate="44"&gt;Заказать сейчас&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;
       &lt;!-- i7s --&gt;
       &lt;section class="opisanie"&gt;
-         &lt;h2 class="venzel"&gt;&lt;span data-translate="46"&gt;Подарок
+         &lt;h2 class="venzel"&gt;&lt;span data-translate="45"&gt;Подарок &lt;/span&gt;&lt;br&gt;&lt;span data-translate="46"&gt;Набор Jar zipper bags
          &lt;/span&gt;&lt;/h2&gt;
          &lt;!-- &lt;img alt="Air-Pods" title="Air-pods" class="center" src="http://smartpods.shopent.net/files/k/kiosk/smartpods.shopent.net/files/img/bottle3.jpg"&gt; --&gt;
-         &lt;p class="justify"&gt;&lt;span data-translate="47"&gt;Набор Jar zipper bags
-            Original Jar Zipper Bags выполнены в виде винтажных банок Ball Mason станет не только незаменимыми
+         &lt;p class="justify"&gt;&lt;span data-translate="47"&gt;Original Jar Zipper Bags выполнены в виде винтажных банок Ball Mason станет не только незаменимыми
             помощниками на кухне, но и идеальным компаньоном для путешествий и походов, они идеально подходят для защиты
             свежести различных закусок, фруктов, овощей, крекеров, печенья и бутерброды и т.
          &lt;/span&gt;&lt;/p&gt;
@@ -1118,12 +1117,12 @@
          &lt;/ul&gt;
       &lt;/section&gt;
       &lt;section class="opisanie" style="background-color: #000; background-image: url(img/prod.jpg); height: 700px;background-size: contain;background-position: center; background-repeat: no-repeat;"&gt;
-         &lt;h2 class="venzel" style="col</v>
+         &lt;h2 class="venzel" style="color: #fff;"&gt;&lt;span data-</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str" xml:space="preserve">
-        <v xml:space="preserve">or: #fff;"&gt;&lt;span data-translate="54"&gt;Набор Jar zipper bags  
+        <v xml:space="preserve">translate="54"&gt;Набор Jar zipper bags  
             включает в себя 10 баночек
          &lt;/span&gt;&lt;/h2&gt;
          &lt;div style="margin-top:460px;"&gt;
@@ -1169,13 +1168,13 @@
       &lt;section&gt;
          &lt;ul class="deliv deliv1"&gt;
             &lt;li&gt;
-               &lt;img alt="Smart Watch V8" src="img/del</v>
+               &lt;img alt="Smart Watch V8" src="img/deliv1-1.png"&gt;
+          </v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str" xml:space="preserve">
-        <v xml:space="preserve">iv1-1.png"&gt;
-               &lt;h3&gt;&lt;span data-translate="71"&gt;Доставка&lt;/span&gt;&lt;/h3&gt;
+        <v xml:space="preserve">     &lt;h3&gt;&lt;span data-translate="71"&gt;Доставка&lt;/span&gt;&lt;/h3&gt;
                &lt;p&gt;&lt;span data-translate="72"&gt;От 1 до 3 рабочих дней.
                &lt;/span&gt;&lt;/p&gt;
             &lt;/li&gt;
@@ -1230,13 +1229,13 @@
             &lt;div class="timer_block clearfix"&gt;
                &lt;p&gt;&lt;span data-translate="93"&gt;До конца акции:&lt;/span&gt;&lt;/p&gt;
                &lt;div class="timer b clearfix"&gt;
-                  &lt;div class="timer_item hours"&gt;&lt;span data-translate="94"&gt;00&lt;/span</v>
+                  &lt;div class="timer_item hours"&gt;&lt;span data-translate="94"&gt;00&lt;/span&gt;&lt;/div&gt;
+              </v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str" xml:space="preserve">
-        <v xml:space="preserve">&gt;&lt;/div&gt;
-                  &lt;div class="timer_item minutes"&gt;&lt;span data-translate="95"&gt;00&lt;/span&gt;&lt;/div&gt;
+        <v xml:space="preserve">    &lt;div class="timer_item minutes"&gt;&lt;span data-translate="95"&gt;00&lt;/span&gt;&lt;/div&gt;
                   &lt;div class="timer_item seconds"&gt;&lt;span data-translate="96"&gt;00&lt;/span&gt;&lt;/div&gt;
                &lt;/div&gt;
             &lt;/div&gt;
